--- a/Firmware/FanController/ThermTable.xlsx
+++ b/Firmware/FanController/ThermTable.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Temp</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>V/Vs</t>
+  </si>
+  <si>
+    <t>V(5Vs)</t>
+  </si>
+  <si>
+    <t>V(255Vs)</t>
   </si>
 </sst>
 </file>
@@ -348,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,8 +375,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-40</v>
       </c>
@@ -384,8 +396,16 @@
         <f>B2/(B2+C2)</f>
         <v>0.97776354150290445</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>D2*255</f>
+        <v>249.32970308324064</v>
+      </c>
+      <c r="F2">
+        <f>D2*5</f>
+        <v>4.888817707514522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-35</v>
       </c>
@@ -399,8 +419,16 @@
         <f t="shared" ref="D3:D35" si="0">B3/(B3+C3)</f>
         <v>0.96863826401501096</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E35" si="1">D3*255</f>
+        <v>247.00275732382781</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F35" si="2">D3*5</f>
+        <v>4.8431913200750545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-30</v>
       </c>
@@ -414,8 +442,16 @@
         <f t="shared" si="0"/>
         <v>0.95646921829598752</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>243.89965066547683</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>4.7823460914799378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-25</v>
       </c>
@@ -429,8 +465,16 @@
         <f t="shared" si="0"/>
         <v>0.94054276134875181</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>239.83840414393171</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>4.7027138067437591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-20</v>
       </c>
@@ -444,8 +488,16 @@
         <f t="shared" si="0"/>
         <v>0.92006631298674624</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>234.6169098116203</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>4.6003315649337315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-15</v>
       </c>
@@ -459,8 +511,16 @@
         <f t="shared" si="0"/>
         <v>0.89435641399185906</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>228.06088556792406</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>4.4717820699592954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-10</v>
       </c>
@@ -474,8 +534,16 @@
         <f t="shared" si="0"/>
         <v>0.86282353070283735</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>220.02000032922354</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>4.3141176535141863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-5</v>
       </c>
@@ -489,8 +557,16 @@
         <f t="shared" si="0"/>
         <v>0.8250622778290928</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>210.39088084641867</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>4.1253113891454642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -504,8 +580,16 @@
         <f t="shared" si="0"/>
         <v>0.78118736488319784</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>199.20277804521544</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>3.9059368244159893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -519,8 +603,16 @@
         <f t="shared" si="0"/>
         <v>0.73154362416107388</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>186.54362416107384</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>3.6577181208053693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -534,8 +626,16 @@
         <f t="shared" si="0"/>
         <v>0.677117303283717</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>172.66491233734783</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>3.3855865164185852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -549,8 +649,16 @@
         <f t="shared" si="0"/>
         <v>0.61926663138537452</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>157.91299100327049</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>3.0963331569268728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -564,8 +672,16 @@
         <f t="shared" si="0"/>
         <v>0.55962656332570027</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>142.70477364805356</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2.7981328166285016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -579,8 +695,16 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>30</v>
       </c>
@@ -594,8 +718,16 @@
         <f t="shared" si="0"/>
         <v>0.44203278615348562</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>112.71836046913883</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2.2101639307674281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>35</v>
       </c>
@@ -609,8 +741,16 @@
         <f t="shared" si="0"/>
         <v>0.38713097623906795</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>98.718398940962331</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.9356548811953398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>40</v>
       </c>
@@ -624,8 +764,16 @@
         <f t="shared" si="0"/>
         <v>0.3363287031199188</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>85.763819295579296</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1.6816435155995939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>45</v>
       </c>
@@ -639,8 +787,16 @@
         <f t="shared" si="0"/>
         <v>0.29029693976040427</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>74.025719638903084</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1.4514846988020214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50</v>
       </c>
@@ -654,8 +810,16 @@
         <f t="shared" si="0"/>
         <v>0.24922106685686402</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>63.551372048500326</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1.24610533428432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>55</v>
       </c>
@@ -669,8 +833,16 @@
         <f t="shared" si="0"/>
         <v>0.21316222234461921</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>54.356366697877895</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1.0658111117230959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>60</v>
       </c>
@@ -684,8 +856,16 @@
         <f t="shared" si="0"/>
         <v>0.18183008247152768</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>46.366671030239559</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0.90915041235763838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>65</v>
       </c>
@@ -699,8 +879,16 @@
         <f t="shared" si="0"/>
         <v>0.15485577613819798</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>39.488222915240485</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0.77427888069098993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>70</v>
       </c>
@@ -714,8 +902,16 @@
         <f t="shared" si="0"/>
         <v>0.13182386442561467</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>33.615085428531742</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0.65911932212807334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>75</v>
       </c>
@@ -729,8 +925,16 @@
         <f t="shared" si="0"/>
         <v>0.11217649931193678</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>28.60500732454388</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0.56088249655968392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>80</v>
       </c>
@@ -744,8 +948,16 @@
         <f t="shared" si="0"/>
         <v>9.5562831250113056E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>24.368521968778829</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0.47781415625056528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>85</v>
       </c>
@@ -759,8 +971,16 @@
         <f t="shared" si="0"/>
         <v>8.1498626840447119E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>20.782149844314016</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>0.4074931342022356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>90</v>
       </c>
@@ -774,8 +994,16 @@
         <f t="shared" si="0"/>
         <v>6.9602999599929286E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>17.748764897981967</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0.34801499799964641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>95</v>
       </c>
@@ -789,8 +1017,16 @@
         <f t="shared" si="0"/>
         <v>5.9593556335048002E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>15.19635686543724</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.29796778167524002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>100</v>
       </c>
@@ -804,8 +1040,16 @@
         <f t="shared" si="0"/>
         <v>5.1089349426857972E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>13.027784103848782</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>0.25544674713428983</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>105</v>
       </c>
@@ -819,8 +1063,16 @@
         <f t="shared" si="0"/>
         <v>4.3922213511291282E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>11.200164445379277</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0.2196110675564564</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>110</v>
       </c>
@@ -834,8 +1086,16 @@
         <f t="shared" si="0"/>
         <v>3.7850943868224067E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>9.6519906863971379</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0.18925471934112034</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>115</v>
       </c>
@@ -849,8 +1109,16 @@
         <f t="shared" si="0"/>
         <v>3.2694911975236988E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>8.3372025536854313</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0.16347455987618495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>120</v>
       </c>
@@ -864,8 +1132,16 @@
         <f t="shared" si="0"/>
         <v>2.8333786777566171E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>7.2251156282793731</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0.14166893388783086</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>125</v>
       </c>
@@ -878,6 +1154,14 @@
       <c r="D35">
         <f t="shared" si="0"/>
         <v>2.4599598135034428E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>6.2728975244337795</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0.12299799067517214</v>
       </c>
     </row>
   </sheetData>
